--- a/outputs-HGR-r202/test-g__UBA11471_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__UBA11471_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
   <si>
     <t>Row</t>
   </si>
@@ -259,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -269,14 +269,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,24 +301,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -331,7 +335,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -348,7 +352,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -365,7 +369,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -382,7 +386,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -399,7 +403,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -416,7 +420,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -433,7 +437,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -450,7 +454,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -467,7 +471,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -484,7 +488,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -501,7 +505,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -518,7 +522,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -535,7 +539,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -552,7 +556,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -569,7 +573,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -586,7 +590,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -603,7 +607,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -620,7 +624,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -637,7 +641,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -654,7 +658,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -671,7 +675,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -688,7 +692,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -705,7 +709,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -722,7 +726,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -739,7 +743,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -756,7 +760,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -773,7 +777,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -790,7 +794,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -807,7 +811,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -824,7 +828,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -841,7 +845,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -858,7 +862,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -875,7 +879,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -892,7 +896,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -909,7 +913,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -926,7 +930,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -943,7 +947,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -960,7 +964,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -977,7 +981,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -994,7 +998,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1011,7 +1015,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1028,7 +1032,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1045,7 +1049,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1062,7 +1066,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1079,7 +1083,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1096,7 +1100,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1113,7 +1117,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1130,7 +1134,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1147,7 +1151,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1164,7 +1168,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1181,7 +1185,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1198,7 +1202,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1215,7 +1219,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1249,7 +1253,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1266,7 +1270,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1283,7 +1287,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1300,7 +1304,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1317,7 +1321,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1334,7 +1338,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1351,7 +1355,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1385,7 +1389,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1402,7 +1406,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1419,7 +1423,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1436,7 +1440,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1453,7 +1457,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1470,7 +1474,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1487,7 +1491,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
